--- a/doc/Type2.xlsx
+++ b/doc/Type2.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20228"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FC896C6-F393-4205-AD58-F65BE4FCCFFB}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -18,10 +19,74 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="17">
+  <si>
+    <t>_expire</t>
+  </si>
+  <si>
+    <t>_effect</t>
+  </si>
+  <si>
+    <t>store</t>
+  </si>
+  <si>
+    <t>type</t>
+  </si>
+  <si>
+    <t>key</t>
+  </si>
+  <si>
+    <t>profile</t>
+  </si>
+  <si>
+    <t>plan</t>
+  </si>
+  <si>
+    <t>ABC</t>
+  </si>
+  <si>
+    <t>member</t>
+  </si>
+  <si>
+    <t>casual</t>
+  </si>
+  <si>
+    <t>tstamp</t>
+  </si>
+  <si>
+    <t>dd-mmm</t>
+  </si>
+  <si>
+    <t>one open row, no Effect</t>
+  </si>
+  <si>
+    <t>No row, Effect</t>
+  </si>
+  <si>
+    <t>No row,  no Effect</t>
+  </si>
+  <si>
+    <t>one open row, Effect, &lt; Create</t>
+  </si>
+  <si>
+    <t>create</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -49,8 +114,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -330,13 +397,237 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:P15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L16" sqref="L16"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="12" max="12" width="9.140625" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="D1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" t="s">
+        <v>6</v>
+      </c>
+      <c r="K1" t="s">
+        <v>1</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="M1" t="s">
+        <v>2</v>
+      </c>
+      <c r="N1" t="s">
+        <v>3</v>
+      </c>
+      <c r="O1" t="s">
+        <v>4</v>
+      </c>
+      <c r="P1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>1</v>
+      </c>
+      <c r="B4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="E5" t="s">
+        <v>5</v>
+      </c>
+      <c r="F5" t="s">
+        <v>6</v>
+      </c>
+      <c r="G5" t="s">
+        <v>7</v>
+      </c>
+      <c r="H5" t="s">
+        <v>8</v>
+      </c>
+      <c r="M5" t="s">
+        <v>5</v>
+      </c>
+      <c r="N5" t="s">
+        <v>6</v>
+      </c>
+      <c r="O5" t="s">
+        <v>7</v>
+      </c>
+      <c r="P5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>2</v>
+      </c>
+      <c r="B7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="C8" s="1"/>
+      <c r="D8" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E8" t="s">
+        <v>5</v>
+      </c>
+      <c r="F8" t="s">
+        <v>6</v>
+      </c>
+      <c r="G8" t="s">
+        <v>7</v>
+      </c>
+      <c r="H8" t="s">
+        <v>8</v>
+      </c>
+      <c r="K8" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M8" t="s">
+        <v>5</v>
+      </c>
+      <c r="N8" t="s">
+        <v>6</v>
+      </c>
+      <c r="O8" t="s">
+        <v>7</v>
+      </c>
+      <c r="P8" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>3</v>
+      </c>
+      <c r="B11" t="s">
+        <v>12</v>
+      </c>
+      <c r="L11" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="M11" t="s">
+        <v>5</v>
+      </c>
+      <c r="N11" t="s">
+        <v>6</v>
+      </c>
+      <c r="O11" t="s">
+        <v>7</v>
+      </c>
+      <c r="P11" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="E12" t="s">
+        <v>5</v>
+      </c>
+      <c r="F12" t="s">
+        <v>6</v>
+      </c>
+      <c r="G12" t="s">
+        <v>7</v>
+      </c>
+      <c r="H12" t="s">
+        <v>9</v>
+      </c>
+      <c r="K12" t="s">
+        <v>10</v>
+      </c>
+      <c r="M12" t="s">
+        <v>5</v>
+      </c>
+      <c r="N12" t="s">
+        <v>6</v>
+      </c>
+      <c r="O12" t="s">
+        <v>7</v>
+      </c>
+      <c r="P12" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>4</v>
+      </c>
+      <c r="B14" t="s">
+        <v>15</v>
+      </c>
+      <c r="K14" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="M14" t="s">
+        <v>5</v>
+      </c>
+      <c r="N14" t="s">
+        <v>6</v>
+      </c>
+      <c r="O14" t="s">
+        <v>7</v>
+      </c>
+      <c r="P14" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="D15" t="s">
+        <v>11</v>
+      </c>
+      <c r="E15" t="s">
+        <v>5</v>
+      </c>
+      <c r="F15" t="s">
+        <v>6</v>
+      </c>
+      <c r="G15" t="s">
+        <v>7</v>
+      </c>
+      <c r="H15" t="s">
+        <v>9</v>
+      </c>
+      <c r="L15" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="M15" t="s">
+        <v>5</v>
+      </c>
+      <c r="N15" t="s">
+        <v>6</v>
+      </c>
+      <c r="O15" t="s">
+        <v>7</v>
+      </c>
+      <c r="P15" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/doc/Type2.xlsx
+++ b/doc/Type2.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20325"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FC896C6-F393-4205-AD58-F65BE4FCCFFB}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A67BCA8A-1D9F-48F0-B05E-DC4DE8D82D08}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="17">
   <si>
     <t>_expire</t>
   </si>
@@ -401,7 +401,7 @@
   <dimension ref="A1:P15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L16" sqref="L16"/>
+      <selection activeCell="K16" sqref="K16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -610,6 +610,9 @@
       <c r="H15" t="s">
         <v>9</v>
       </c>
+      <c r="K15" t="s">
+        <v>11</v>
+      </c>
       <c r="L15" s="2" t="s">
         <v>16</v>
       </c>

--- a/doc/Type2.xlsx
+++ b/doc/Type2.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20325"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A67BCA8A-1D9F-48F0-B05E-DC4DE8D82D08}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5F224DC-54CF-43B3-AD0A-997E83657517}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="30">
   <si>
     <t>_expire</t>
   </si>
@@ -71,6 +71,45 @@
   </si>
   <si>
     <t>create</t>
+  </si>
+  <si>
+    <t>one open row, Effect &gt; Create</t>
+  </si>
+  <si>
+    <t>effect</t>
+  </si>
+  <si>
+    <t>one closed row, Effect &gt; Expire</t>
+  </si>
+  <si>
+    <t>expire</t>
+  </si>
+  <si>
+    <t xml:space="preserve">plan </t>
+  </si>
+  <si>
+    <t>one closed row, no Effect</t>
+  </si>
+  <si>
+    <t>no change</t>
+  </si>
+  <si>
+    <t>set expire</t>
+  </si>
+  <si>
+    <t>set effect</t>
+  </si>
+  <si>
+    <t>gap is left between rows</t>
+  </si>
+  <si>
+    <t>ABc</t>
+  </si>
+  <si>
+    <t>one closed row, Effect &gt; Create, Effect &lt; Expire</t>
+  </si>
+  <si>
+    <t>dangerous ?</t>
   </si>
 </sst>
 </file>
@@ -398,10 +437,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:P15"/>
+  <dimension ref="A1:T27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K16" sqref="K16"/>
+      <selection activeCell="T24" sqref="T24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -409,7 +448,7 @@
     <col min="12" max="12" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
       <c r="D1" t="s">
         <v>1</v>
       </c>
@@ -444,7 +483,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>1</v>
       </c>
@@ -452,7 +491,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="E5" t="s">
         <v>5</v>
       </c>
@@ -478,7 +517,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>2</v>
       </c>
@@ -486,7 +525,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
       <c r="C8" s="1"/>
       <c r="D8" s="1" t="s">
         <v>11</v>
@@ -519,7 +558,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>3</v>
       </c>
@@ -541,8 +580,11 @@
       <c r="P11" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="R11" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
       <c r="E12" t="s">
         <v>5</v>
       </c>
@@ -571,7 +613,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>4</v>
       </c>
@@ -593,10 +635,13 @@
       <c r="P14" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="R14" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
       <c r="D15" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="E15" t="s">
         <v>5</v>
@@ -611,7 +656,7 @@
         <v>9</v>
       </c>
       <c r="K15" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="L15" s="2" t="s">
         <v>16</v>
@@ -627,6 +672,229 @@
       </c>
       <c r="P15" t="s">
         <v>9</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>5</v>
+      </c>
+      <c r="B17" t="s">
+        <v>17</v>
+      </c>
+      <c r="L17" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="M17" t="s">
+        <v>5</v>
+      </c>
+      <c r="N17" t="s">
+        <v>6</v>
+      </c>
+      <c r="O17" t="s">
+        <v>7</v>
+      </c>
+      <c r="P17" t="s">
+        <v>8</v>
+      </c>
+      <c r="R17" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="D18" t="s">
+        <v>18</v>
+      </c>
+      <c r="E18" t="s">
+        <v>5</v>
+      </c>
+      <c r="F18" t="s">
+        <v>6</v>
+      </c>
+      <c r="G18" t="s">
+        <v>7</v>
+      </c>
+      <c r="H18" t="s">
+        <v>9</v>
+      </c>
+      <c r="K18" t="s">
+        <v>18</v>
+      </c>
+      <c r="M18" t="s">
+        <v>5</v>
+      </c>
+      <c r="N18" t="s">
+        <v>6</v>
+      </c>
+      <c r="O18" t="s">
+        <v>7</v>
+      </c>
+      <c r="P18" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>6</v>
+      </c>
+      <c r="B20" t="s">
+        <v>22</v>
+      </c>
+      <c r="L20" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="M20" t="s">
+        <v>5</v>
+      </c>
+      <c r="N20" t="s">
+        <v>6</v>
+      </c>
+      <c r="O20" t="s">
+        <v>7</v>
+      </c>
+      <c r="P20" t="s">
+        <v>8</v>
+      </c>
+      <c r="R20" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="E21" t="s">
+        <v>5</v>
+      </c>
+      <c r="F21" t="s">
+        <v>21</v>
+      </c>
+      <c r="G21" t="s">
+        <v>7</v>
+      </c>
+      <c r="H21" t="s">
+        <v>9</v>
+      </c>
+      <c r="K21" t="s">
+        <v>20</v>
+      </c>
+      <c r="M21" t="s">
+        <v>5</v>
+      </c>
+      <c r="N21" t="s">
+        <v>6</v>
+      </c>
+      <c r="O21" t="s">
+        <v>7</v>
+      </c>
+      <c r="P21" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>7</v>
+      </c>
+      <c r="B23" t="s">
+        <v>28</v>
+      </c>
+      <c r="L23" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="M23" t="s">
+        <v>5</v>
+      </c>
+      <c r="N23" t="s">
+        <v>6</v>
+      </c>
+      <c r="O23" t="s">
+        <v>7</v>
+      </c>
+      <c r="P23" t="s">
+        <v>8</v>
+      </c>
+      <c r="R23" t="s">
+        <v>24</v>
+      </c>
+      <c r="T23" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="D24" t="s">
+        <v>18</v>
+      </c>
+      <c r="E24" t="s">
+        <v>5</v>
+      </c>
+      <c r="F24" t="s">
+        <v>6</v>
+      </c>
+      <c r="G24" t="s">
+        <v>7</v>
+      </c>
+      <c r="H24" t="s">
+        <v>9</v>
+      </c>
+      <c r="K24" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>8</v>
+      </c>
+      <c r="B26" t="s">
+        <v>19</v>
+      </c>
+      <c r="L26" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="M26" t="s">
+        <v>5</v>
+      </c>
+      <c r="N26" t="s">
+        <v>6</v>
+      </c>
+      <c r="O26" t="s">
+        <v>7</v>
+      </c>
+      <c r="P26" t="s">
+        <v>8</v>
+      </c>
+      <c r="R26" t="s">
+        <v>23</v>
+      </c>
+      <c r="T26" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="D27" t="s">
+        <v>18</v>
+      </c>
+      <c r="E27" t="s">
+        <v>5</v>
+      </c>
+      <c r="F27" t="s">
+        <v>6</v>
+      </c>
+      <c r="G27" t="s">
+        <v>7</v>
+      </c>
+      <c r="H27" t="s">
+        <v>9</v>
+      </c>
+      <c r="K27" t="s">
+        <v>18</v>
+      </c>
+      <c r="M27" t="s">
+        <v>5</v>
+      </c>
+      <c r="N27" t="s">
+        <v>6</v>
+      </c>
+      <c r="O27" t="s">
+        <v>27</v>
+      </c>
+      <c r="P27" t="s">
+        <v>8</v>
       </c>
     </row>
   </sheetData>
